--- a/medicine/Mort/Cimetière_militaire_R.E._Farm/Cimetière_militaire_R.E._Farm.xlsx
+++ b/medicine/Mort/Cimetière_militaire_R.E._Farm/Cimetière_militaire_R.E._Farm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_R.E._Farm</t>
+          <t>Cimetière_militaire_R.E._Farm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cimetière militaire R.E. Farm est un cimetière de la Commonwealth War Graves Commission (CWGC) pour les morts de la Première Guerre mondiale situé à Wytschaete dans le Heuvelland dans le saillant d'Ypres sur le front occidental en Belgique.
-Le terrain du cimetière a été attribué au Royaume-Uni à perpétuité par le roi Albert Ier de Belgique en reconnaissance des sacrifices consentis par l'Empire britannique dans la défense et la libération de la Belgique pendant la guerre[1].
+Le terrain du cimetière a été attribué au Royaume-Uni à perpétuité par le roi Albert Ier de Belgique en reconnaissance des sacrifices consentis par l'Empire britannique dans la défense et la libération de la Belgique pendant la guerre.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_R.E._Farm</t>
+          <t>Cimetière_militaire_R.E._Farm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone autour du cimetière RE Farm a été très disputée pendant la Grande Guerre. Les armées allemandes prennent Wytschaete le 1er novembre 1914; il est repris en juin 1917 par les britanniques mais perdu lors de l'offensive de printemps en avril 1918 ; les Alliés ont finalement repris la région en septembre 1918 lorsque les combats ont balayé le saillant avec l'effondrement des forces allemandes face à l'offensive des cent jours[2]. Le site du cimetière lui-même est resté aux mains des Alliés jusqu'à l'offensive de printemps[3]. Le site abritait à l'origine un bâtiment de ferme, connu officiellement sous le nom de Ferme des douze Bonniers. Les troupes britanniques ont appelé cette ferme RE.
-Le cimetière a été créé par le 1st Dorsets Regiment en décembre 1914. Un deuxième cimetière a été établi à proximité, également par les Dorsets, qui a été concentré dans le cimetière de la ferme RE après l'armistice[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone autour du cimetière RE Farm a été très disputée pendant la Grande Guerre. Les armées allemandes prennent Wytschaete le 1er novembre 1914; il est repris en juin 1917 par les britanniques mais perdu lors de l'offensive de printemps en avril 1918 ; les Alliés ont finalement repris la région en septembre 1918 lorsque les combats ont balayé le saillant avec l'effondrement des forces allemandes face à l'offensive des cent jours. Le site du cimetière lui-même est resté aux mains des Alliés jusqu'à l'offensive de printemps. Le site abritait à l'origine un bâtiment de ferme, connu officiellement sous le nom de Ferme des douze Bonniers. Les troupes britanniques ont appelé cette ferme RE.
+Le cimetière a été créé par le 1st Dorsets Regiment en décembre 1914. Un deuxième cimetière a été établi à proximité, également par les Dorsets, qui a été concentré dans le cimetière de la ferme RE après l'armistice.
 </t>
         </is>
       </c>
